--- a/StudentDetails.xlsx
+++ b/StudentDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11175" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Class1" sheetId="1" state="visible" r:id="rId1"/>
@@ -399,19 +399,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="3"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="5"/>
-    <col width="40" customWidth="1" min="6" max="6"/>
-    <col width="50" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="10"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -437,17 +444,42 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Mark1</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>Mark2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Mark3</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Mark4</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Mark5</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Grade</t>
         </is>
       </c>
     </row>
@@ -457,24 +489,51 @@
           <t>Class1_st</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1212</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>231</v>
-      </c>
-      <c r="F2" t="n">
-        <v>321</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>dww</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>250</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -489,13 +548,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H1" sqref="H1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -520,17 +593,42 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Mark1</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>Mark2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Mark3</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Mark4</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Mark5</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Grade</t>
         </is>
       </c>
     </row>
@@ -540,24 +638,121 @@
           <t>Class10_stu</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1207</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E2" t="n">
-        <v>32</v>
-      </c>
-      <c r="F2" t="n">
-        <v>31</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1207</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>dasd</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Neenu</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11-1-1998</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Nozggsh</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -572,19 +767,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H1" sqref="H1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="3"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="5"/>
-    <col width="40" customWidth="1" min="6" max="6"/>
-    <col width="50" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -610,17 +812,42 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Mark1</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>Mark2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Mark3</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Mark4</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Mark5</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Grade</t>
         </is>
       </c>
     </row>
@@ -648,6 +875,73 @@
       <c r="G2" t="inlineStr">
         <is>
           <t>dww</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>250</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fijo</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12071991</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Pulickal1</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G3" t="n">
+        <v>65</v>
+      </c>
+      <c r="H3" t="n">
+        <v>87</v>
+      </c>
+      <c r="I3" t="n">
+        <v>32</v>
+      </c>
+      <c r="J3" t="n">
+        <v>43</v>
+      </c>
+      <c r="K3" t="n">
+        <v>272</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -662,19 +956,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="3"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="5"/>
-    <col width="40" customWidth="1" min="6" max="6"/>
-    <col width="50" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -700,17 +1001,42 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Mark1</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>Mark2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Mark3</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Mark4</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Mark5</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Grade</t>
         </is>
       </c>
     </row>
@@ -750,21 +1076,38 @@
           <t>asdf</t>
         </is>
       </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>250</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>anna_Minna</t>
+          <t>Saju</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12-12-1995</t>
+          <t>31-12-2002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -774,17 +1117,134 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>143</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pulickal</t>
+          <t>sdfghj</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>88</v>
+      </c>
+      <c r="I3" t="n">
+        <v>93</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+      <c r="K3" t="n">
+        <v>281</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>fijo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1208991</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Pulic</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>90</v>
+      </c>
+      <c r="H4" t="n">
+        <v>90</v>
+      </c>
+      <c r="I4" t="n">
+        <v>80</v>
+      </c>
+      <c r="J4" t="n">
+        <v>90</v>
+      </c>
+      <c r="K4" t="n">
+        <v>450</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>dsfsd</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>52</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>31</v>
+      </c>
+      <c r="J5" t="n">
+        <v>32</v>
+      </c>
+      <c r="K5" t="n">
+        <v>139</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -799,19 +1259,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G2"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="3"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="5"/>
-    <col width="40" customWidth="1" min="6" max="6"/>
-    <col width="50" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -837,17 +1304,42 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Mark1</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>Mark2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Mark3</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Mark4</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Mark5</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Grade</t>
         </is>
       </c>
     </row>
@@ -857,24 +1349,97 @@
           <t>Class4_stu</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1207</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1207</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>dasd</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>250</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fijo</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1991-07-12</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>4</v>
       </c>
-      <c r="E2" t="n">
-        <v>32</v>
-      </c>
-      <c r="F2" t="n">
-        <v>31</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>dasd</t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -889,13 +1454,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="3"/>
@@ -940,6 +1505,31 @@
           <t>Address</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Mark1</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Mark2</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Mark3</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -975,136 +1565,21 @@
           <t>asdad</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Anna</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>16-11-1996</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Jarkjhg</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Jofin</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>16-11-1997</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>213</v>
-      </c>
-      <c r="F4" t="n">
-        <v>23</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>cvx</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>fijo</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>16-11-1998</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>31</v>
-      </c>
-      <c r="F5" t="n">
-        <v>312</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>vxcv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>fijo_Francis</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>16-11-1999</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ew</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ew</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>dws</t>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>250</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1119,13 +1594,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H1" sqref="H1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1150,17 +1639,42 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Mark1</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>Mark2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Mark3</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Mark4</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Mark5</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Grade</t>
         </is>
       </c>
     </row>
@@ -1188,6 +1702,69 @@
       <c r="G2" t="inlineStr">
         <is>
           <t>dasd</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>250</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fijof</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>56</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12-07-1991</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>efw</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12</v>
+      </c>
+      <c r="K3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -1202,13 +1779,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="3"/>
@@ -1253,6 +1830,31 @@
           <t>Address</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Mark1</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Mark2</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Mark3</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1280,41 +1882,21 @@
           <t>dasd</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>minna</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>16-12-1997</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>fghjk</t>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>250</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1329,19 +1911,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="3"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="5"/>
-    <col width="40" customWidth="1" min="6" max="6"/>
-    <col width="50" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="10"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1367,17 +1956,42 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Mark1</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>Mark2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Mark3</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Mark4</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Mark5</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Grade</t>
         </is>
       </c>
     </row>
@@ -1405,6 +2019,69 @@
       <c r="G2" t="inlineStr">
         <is>
           <t>dasd</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>250</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Fijo</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12092281</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Pulickal</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>99</v>
+      </c>
+      <c r="G3" t="n">
+        <v>99</v>
+      </c>
+      <c r="H3" t="n">
+        <v>99</v>
+      </c>
+      <c r="I3" t="n">
+        <v>99</v>
+      </c>
+      <c r="J3" t="n">
+        <v>99</v>
+      </c>
+      <c r="K3" t="n">
+        <v>495</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1419,19 +2096,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H1" sqref="H1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="3"/>
     <col width="20" customWidth="1" min="4" max="5"/>
     <col width="40" customWidth="1" min="6" max="6"/>
     <col width="50" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1470,6 +2148,31 @@
           <t>Address</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Mark1</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Mark2</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Mark3</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1495,6 +2198,23 @@
       <c r="G2" t="inlineStr">
         <is>
           <t>dasd</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>250</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>

--- a/StudentDetails.xlsx
+++ b/StudentDetails.xlsx
@@ -411,7 +411,7 @@
       <selection activeCell="A1" sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
@@ -539,13 +539,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
@@ -636,7 +636,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11-1-1997</t>
+          <t>11-01-1997</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -654,8 +654,10 @@
           <t>31</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>43</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -672,10 +674,8 @@
           <t>100</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
+      <c r="K2" t="n">
+        <v>324</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11-1-1998</t>
+          <t>11-01-1998</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -734,14 +734,72 @@
           <t>45</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>373</t>
-        </is>
+      <c r="K3" t="n">
+        <v>373</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Stephan</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08-09-1996</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>275</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -762,7 +820,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
@@ -942,7 +1000,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
@@ -1217,20 +1275,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="30" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="12"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1308,7 +1372,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1991-07-11</t>
+          <t>10-09-1991</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1323,14 +1387,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>100</t>
@@ -1347,11 +1411,11 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1432,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1991-07-12</t>
+          <t>10-05-1994</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1412,6 +1476,66 @@
       <c r="L3" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jofin</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10-09-2022</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Pulickal</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>412</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1426,19 +1550,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="3"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="5"/>
-    <col width="40" customWidth="1" min="6" max="6"/>
-    <col width="50" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1516,7 +1647,8 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1991-07-11</t>
+          <t xml:space="preserve">02-04-1990
+</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1554,10 +1686,8 @@
           <t>100</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
+      <c r="K2" t="n">
+        <v>312</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -1578,7 +1708,8 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1991-07-12</t>
+          <t xml:space="preserve">22-08-1999
+</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1616,14 +1747,72 @@
           <t>10</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="K3" t="n">
+        <v>103</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12-08-1994</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>428</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1833,7 @@
       <selection activeCell="A1" sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
@@ -1779,7 +1968,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="3"/>
@@ -1913,7 +2102,7 @@
       <selection activeCell="A1" sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
@@ -2093,7 +2282,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="3"/>

--- a/StudentDetails.xlsx
+++ b/StudentDetails.xlsx
@@ -994,7 +994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -1261,6 +1261,66 @@
       <c r="L4" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12-01-2000</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>408</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>B</t>
         </is>
       </c>
     </row>
